--- a/biology/Botanique/Mammillaria_hahniana/Mammillaria_hahniana.xlsx
+++ b/biology/Botanique/Mammillaria_hahniana/Mammillaria_hahniana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mammillaria hahniana, appelé également mammillaire tête-de-vieillard, est une espèce de cactus qui se rencontre au Mexique. Il a été introduit en Europe par le collectionneur Adolf Hahn[1] et décrit par le professeur Erich Werdermann.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mammillaria hahniana, appelé également mammillaire tête-de-vieillard, est une espèce de cactus qui se rencontre au Mexique. Il a été introduit en Europe par le collectionneur Adolf Hahn et décrit par le professeur Erich Werdermann.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante globuleuse aplatie mesurant jusqu'à neuf centimètres de hauteur avec de petits mamelons réguliers. Elle est spectaculaire en raison de sa longue chevelure. Ses aréoles comportent jusqu'à trente épines fines et soyeuses. Ses axilles comportent des poils blancs pouvant mesurer 4 cm de longueur entre les mamelons.
 Ses fleurs sont de couleur pourpre et mesurent 1,5 cm de largeur. Elles sont disposées en couronne autour du sommet de la plante.
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cactus est originaire de la région de Guanajuato.
 </t>
@@ -574,7 +590,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est assez facile à cultiver, nécessitant du soleil. Son hivernage se fait au frais et au sec pour qu'il puisse fleurir.
 </t>
